--- a/data/trans_orig/P13A_1_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P13A_1_R-Edad-trans_orig.xlsx
@@ -754,19 +754,19 @@
         <v>16059</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6232</v>
+        <v>6969</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>30850</v>
+        <v>32204</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.044781824218984</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01737877611021752</v>
+        <v>0.01943311679554897</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08602538000978663</v>
+        <v>0.08980269708293684</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>7</v>
@@ -775,19 +775,19 @@
         <v>16059</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>6949</v>
+        <v>7561</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>33988</v>
+        <v>32928</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02095409362279962</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.009067021299554463</v>
+        <v>0.009865313546483213</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04434782211809227</v>
+        <v>0.04296441183032024</v>
       </c>
     </row>
     <row r="5">
@@ -817,19 +817,19 @@
         <v>342554</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>327763</v>
+        <v>326409</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>352381</v>
+        <v>351644</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9552181757810159</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9139746199902132</v>
+        <v>0.9101973029170632</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9826212238897822</v>
+        <v>0.980566883204451</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>370</v>
@@ -838,19 +838,19 @@
         <v>750348</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>732419</v>
+        <v>733479</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>759458</v>
+        <v>758846</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9790459063772005</v>
+        <v>0.9790459063772006</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9556521778819076</v>
+        <v>0.9570355881696797</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9909329787004455</v>
+        <v>0.9901346864535168</v>
       </c>
     </row>
     <row r="6">
@@ -942,19 +942,19 @@
         <v>5404</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1920</v>
+        <v>1895</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>14372</v>
+        <v>13279</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01133120532306965</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.004025626584667096</v>
+        <v>0.003972991586171702</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03013777817829257</v>
+        <v>0.02784495518827497</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>9</v>
@@ -963,19 +963,19 @@
         <v>8924</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3999</v>
+        <v>4141</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>16341</v>
+        <v>16663</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01784392844822711</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0079970684807721</v>
+        <v>0.008280593676207603</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03267503343782354</v>
+        <v>0.0333191167788776</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>13</v>
@@ -984,19 +984,19 @@
         <v>14328</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>7898</v>
+        <v>8219</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>24704</v>
+        <v>24456</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01466495179410945</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.00808412384354631</v>
+        <v>0.008412920500065974</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02528583032828005</v>
+        <v>0.02503138356404917</v>
       </c>
     </row>
     <row r="8">
@@ -1013,19 +1013,19 @@
         <v>471486</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>462518</v>
+        <v>463611</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>474970</v>
+        <v>474995</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9886687946769304</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9698622218217077</v>
+        <v>0.972155044811725</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9959743734153329</v>
+        <v>0.9960270084138284</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>450</v>
@@ -1034,19 +1034,19 @@
         <v>491184</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>483767</v>
+        <v>483445</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>496109</v>
+        <v>495967</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9821560715517728</v>
+        <v>0.9821560715517729</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9673249665621768</v>
+        <v>0.9666808832211224</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.992002931519228</v>
+        <v>0.9917194063237923</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>748</v>
@@ -1055,19 +1055,19 @@
         <v>962670</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>952294</v>
+        <v>952542</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>969100</v>
+        <v>968779</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9853350482058905</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9747141696717202</v>
+        <v>0.974968616435951</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9919158761564539</v>
+        <v>0.9915870794999342</v>
       </c>
     </row>
     <row r="9">
@@ -1159,19 +1159,19 @@
         <v>7122</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2783</v>
+        <v>2787</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>15586</v>
+        <v>15377</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01153581747619169</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.004508084328186197</v>
+        <v>0.004514765151427155</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02524407129208392</v>
+        <v>0.02490562924248911</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>26</v>
@@ -1180,19 +1180,19 @@
         <v>18743</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>11861</v>
+        <v>12169</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>26137</v>
+        <v>26999</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.03028638697312399</v>
+        <v>0.030286386973124</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01916612305286492</v>
+        <v>0.0196627584393757</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04223351199150255</v>
+        <v>0.04362708492310329</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>31</v>
@@ -1201,19 +1201,19 @@
         <v>25865</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>17218</v>
+        <v>17514</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>35864</v>
+        <v>37210</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02092217551505917</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01392763651422778</v>
+        <v>0.01416649500486219</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02900940833236799</v>
+        <v>0.03009845499468184</v>
       </c>
     </row>
     <row r="11">
@@ -1230,19 +1230,19 @@
         <v>610284</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>601820</v>
+        <v>602029</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>614623</v>
+        <v>614619</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9884641825238083</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9747559287079162</v>
+        <v>0.9750943707575106</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9954919156718137</v>
+        <v>0.9954852348485729</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>816</v>
@@ -1251,19 +1251,19 @@
         <v>600123</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>592729</v>
+        <v>591867</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>607005</v>
+        <v>606697</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.969713613026876</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9577664880084973</v>
+        <v>0.9563729150768967</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9808338769471348</v>
+        <v>0.9803372415606242</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1354</v>
@@ -1272,19 +1272,19 @@
         <v>1210407</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1200408</v>
+        <v>1199062</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1219054</v>
+        <v>1218758</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9790778244849406</v>
+        <v>0.9790778244849409</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.970990591667632</v>
+        <v>0.9699015450053181</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9860723634857724</v>
+        <v>0.9858335049951378</v>
       </c>
     </row>
     <row r="12">
@@ -1376,19 +1376,19 @@
         <v>7391</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3149</v>
+        <v>3322</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>14917</v>
+        <v>15527</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.01056635496611798</v>
+        <v>0.01056635496611797</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.004502038205232418</v>
+        <v>0.004748471084972137</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02132483881748152</v>
+        <v>0.02219632586494762</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>60</v>
@@ -1397,19 +1397,19 @@
         <v>41031</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>31887</v>
+        <v>32390</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>51861</v>
+        <v>52117</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05589894627477614</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04344192081154423</v>
+        <v>0.04412643862327085</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07065274231725588</v>
+        <v>0.07100190631394432</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>67</v>
@@ -1418,19 +1418,19 @@
         <v>48423</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>38052</v>
+        <v>38446</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>61251</v>
+        <v>63439</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03377825134273665</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02654402763481799</v>
+        <v>0.02681906457190012</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04272690104202774</v>
+        <v>0.04425307929258916</v>
       </c>
     </row>
     <row r="14">
@@ -1447,19 +1447,19 @@
         <v>692128</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>684602</v>
+        <v>683992</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>696370</v>
+        <v>696197</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9894336450338821</v>
+        <v>0.989433645033882</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9786751611825187</v>
+        <v>0.9778036741350528</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9954979617947678</v>
+        <v>0.995251528915028</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1077</v>
@@ -1468,19 +1468,19 @@
         <v>692995</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>682165</v>
+        <v>681909</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>702139</v>
+        <v>701636</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9441010537252239</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9293472576827443</v>
+        <v>0.9289980936860557</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9565580791884558</v>
+        <v>0.9558735613767291</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1734</v>
@@ -1489,19 +1489,19 @@
         <v>1385123</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1372295</v>
+        <v>1370107</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1395494</v>
+        <v>1395100</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9662217486572633</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9572730989579721</v>
+        <v>0.955746920707411</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.973455972365182</v>
+        <v>0.9731809354281</v>
       </c>
     </row>
     <row r="15">
@@ -1593,19 +1593,19 @@
         <v>11016</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5738</v>
+        <v>5881</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>17466</v>
+        <v>19363</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01819407331282015</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.009476556264928961</v>
+        <v>0.009712654075412349</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02884539294972411</v>
+        <v>0.03197986632808342</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>52</v>
@@ -1614,19 +1614,19 @@
         <v>32439</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>24426</v>
+        <v>24202</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>41911</v>
+        <v>42425</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05362982727665042</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04038268443005927</v>
+        <v>0.040012700052647</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06928932170801635</v>
+        <v>0.07013951103837561</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>64</v>
@@ -1635,19 +1635,19 @@
         <v>43455</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>33683</v>
+        <v>34045</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>54610</v>
+        <v>56119</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.03590280791624581</v>
+        <v>0.03590280791624582</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02782892002938642</v>
+        <v>0.02812817705330298</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04511932842601621</v>
+        <v>0.04636581175014849</v>
       </c>
     </row>
     <row r="17">
@@ -1664,19 +1664,19 @@
         <v>594474</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>588024</v>
+        <v>586127</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>599752</v>
+        <v>599609</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9818059266871798</v>
+        <v>0.9818059266871797</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9711546070502761</v>
+        <v>0.9680201336719179</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9905234437350711</v>
+        <v>0.9902873459245879</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>944</v>
@@ -1685,19 +1685,19 @@
         <v>572426</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>562954</v>
+        <v>562440</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>580439</v>
+        <v>580663</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9463701727233494</v>
+        <v>0.9463701727233497</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9307106782919835</v>
+        <v>0.9298604889616244</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9596173155699406</v>
+        <v>0.959987299947353</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1591</v>
@@ -1706,19 +1706,19 @@
         <v>1166900</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1155745</v>
+        <v>1154236</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1176672</v>
+        <v>1176310</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.964097192083754</v>
+        <v>0.9640971920837542</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9548806715739838</v>
+        <v>0.9536341882498516</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9721710799706137</v>
+        <v>0.9718718229466971</v>
       </c>
     </row>
     <row r="18">
@@ -1810,19 +1810,19 @@
         <v>4033</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1491</v>
+        <v>1597</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>9143</v>
+        <v>9422</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.009991029649098069</v>
+        <v>0.009991029649098072</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.003694929428724654</v>
+        <v>0.003955560920534663</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02265297175658652</v>
+        <v>0.0233435076914098</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>31</v>
@@ -1831,19 +1831,19 @@
         <v>17681</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>12101</v>
+        <v>12501</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>24762</v>
+        <v>24808</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.04037092855072641</v>
+        <v>0.0403709285507264</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02762960931116863</v>
+        <v>0.02854414947612924</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05653866959119414</v>
+        <v>0.056643042872799</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>37</v>
@@ -1852,19 +1852,19 @@
         <v>21714</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>15428</v>
+        <v>15414</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>29509</v>
+        <v>29763</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02580071516575805</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01833217059497351</v>
+        <v>0.01831496168763136</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03506304658158145</v>
+        <v>0.03536555566983546</v>
       </c>
     </row>
     <row r="20">
@@ -1881,19 +1881,19 @@
         <v>399595</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>394485</v>
+        <v>394206</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>402137</v>
+        <v>402031</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.990008970350902</v>
+        <v>0.9900089703509021</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9773470282434134</v>
+        <v>0.9766564923085902</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9963050705712754</v>
+        <v>0.9960444390794653</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>794</v>
@@ -1902,19 +1902,19 @@
         <v>420283</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>413202</v>
+        <v>413156</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>425863</v>
+        <v>425463</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9596290714492737</v>
+        <v>0.9596290714492735</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9434613304088059</v>
+        <v>0.943356957127201</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9723703906888314</v>
+        <v>0.9714558505238706</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1354</v>
@@ -1923,19 +1923,19 @@
         <v>819878</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>812083</v>
+        <v>811829</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>826164</v>
+        <v>826178</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.9741992848342419</v>
+        <v>0.9741992848342421</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9649369534184181</v>
+        <v>0.9646344443301657</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9816678294050259</v>
+        <v>0.9816850383123688</v>
       </c>
     </row>
     <row r="21">
@@ -2027,19 +2027,19 @@
         <v>4942</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2281</v>
+        <v>2342</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>9963</v>
+        <v>9708</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01602967715015091</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.007400217856954551</v>
+        <v>0.007597071829822593</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03231546836805002</v>
+        <v>0.03149023998128022</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>34</v>
@@ -2048,19 +2048,19 @@
         <v>20203</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>13879</v>
+        <v>14401</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>28156</v>
+        <v>28148</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0436661931121224</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02999810316312297</v>
+        <v>0.03112569654121731</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.06085460080692521</v>
+        <v>0.06083728021968592</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>42</v>
@@ -2069,19 +2069,19 @@
         <v>25145</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>17918</v>
+        <v>17710</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>34491</v>
+        <v>33802</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03261505567881528</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0232406384750423</v>
+        <v>0.02297108756418446</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0447373387120375</v>
+        <v>0.04384358122174653</v>
       </c>
     </row>
     <row r="23">
@@ -2098,19 +2098,19 @@
         <v>303347</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>298326</v>
+        <v>298581</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>306008</v>
+        <v>305947</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.9839703228498489</v>
+        <v>0.9839703228498491</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9676845316319501</v>
+        <v>0.9685097600187196</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9925997821430455</v>
+        <v>0.9924029281701772</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>842</v>
@@ -2119,19 +2119,19 @@
         <v>442472</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>434519</v>
+        <v>434527</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>448796</v>
+        <v>448274</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.9563338068878776</v>
+        <v>0.9563338068878777</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9391453991930747</v>
+        <v>0.9391627197803141</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9700018968368769</v>
+        <v>0.9688743034587826</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1289</v>
@@ -2140,19 +2140,19 @@
         <v>745819</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>736473</v>
+        <v>737162</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>753046</v>
+        <v>753254</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.9673849443211846</v>
+        <v>0.9673849443211849</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9552626612879623</v>
+        <v>0.9561564187782534</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9767593615249576</v>
+        <v>0.9770289124358158</v>
       </c>
     </row>
     <row r="24">
@@ -2244,19 +2244,19 @@
         <v>39908</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>29053</v>
+        <v>29207</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>54103</v>
+        <v>54714</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01134071447310502</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.00825596437309384</v>
+        <v>0.008299648256392896</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01537438538715443</v>
+        <v>0.01554821243917731</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>219</v>
@@ -2265,19 +2265,19 @@
         <v>155081</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>134242</v>
+        <v>135544</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>181174</v>
+        <v>177572</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.04172072495503839</v>
+        <v>0.04172072495503838</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03611444804591855</v>
+        <v>0.03646491850232821</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04874032050514027</v>
+        <v>0.0477714198252031</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>261</v>
@@ -2286,19 +2286,19 @@
         <v>194989</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>172137</v>
+        <v>170435</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>224117</v>
+        <v>222741</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.0269465743780494</v>
+        <v>0.02694657437804941</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02378849893491861</v>
+        <v>0.02355325836603392</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0309719647443804</v>
+        <v>0.03078181500823735</v>
       </c>
     </row>
     <row r="26">
@@ -2315,19 +2315,19 @@
         <v>3479108</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3464913</v>
+        <v>3464302</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3489963</v>
+        <v>3489809</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.988659285526895</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9846256146128457</v>
+        <v>0.9844517875608226</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9917440356269063</v>
+        <v>0.9917003517436069</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>5121</v>
@@ -2336,19 +2336,19 @@
         <v>3562037</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3535944</v>
+        <v>3539546</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3582876</v>
+        <v>3581574</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.9582792750449615</v>
+        <v>0.9582792750449616</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9512596794948598</v>
+        <v>0.9522285801747965</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9638855519540815</v>
+        <v>0.9635350814976719</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>8440</v>
@@ -2357,19 +2357,19 @@
         <v>7041145</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>7012017</v>
+        <v>7013393</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>7063997</v>
+        <v>7065699</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.9730534256219505</v>
+        <v>0.9730534256219506</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9690280352556194</v>
+        <v>0.9692181849917625</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9762115010650814</v>
+        <v>0.9764467416339656</v>
       </c>
     </row>
     <row r="27">
